--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_155.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_155.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.24, 35.76)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.26, 8.68)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76)]</t>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:21.080000', '0:00:24.320000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08548632218844984</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min', 'A'], ['B', 'E', 'A'], ['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:min/b7', 'A:min', 'G'], ['A', 'D', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.3339, 25.00678), (63.292358, 70.397664), (52.750498, 59.809365)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.981768, 19.977142), (62.748299, 67.543219), (6.126439, 9.980952)]</t>
+          <t>[('0:00:15.027029', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[('0:00:09.900000', '0:00:26.980000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:33.300000', '0:01:43.060000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1522988505747127</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[['G', 'C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(78.32, 99.6)]</t>
+          <t>[('0:00:32.421428', '0:00:38.307687')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:03.629047', '0:01:14.101247')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(51.62, 63.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(23.02, 32.58)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
